--- a/Resultados/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/Resultados/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_100ha_100ha_10%_12m_0_TSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="189" documentId="11_71C3A06FE2F26B06DFCA740473A47AFBCF198BED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49F6E610-2B83-43BE-B21B-A55D40CE7B4B}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="11_71C3A06FE2F26B06DFCA740473A47AFBCF198BED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0EC45D0-688F-4C1D-9A37-51409A2ADA9A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="60">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>Resultado 18</t>
+  </si>
+  <si>
+    <t>ld_100ha_100ha_10%_12m_0_TSP\</t>
   </si>
 </sst>
 </file>
@@ -2875,13 +2878,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF013CF-E396-414D-B33F-23DCB580315A}">
   <sheetPr codeName="Planilha23"/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -2909,8 +2912,11 @@
       <c r="J1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -2950,7 +2956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2981,7 +2987,7 @@
         <v>1.3831</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -3012,7 +3018,7 @@
         <v>1.4944999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -3043,7 +3049,7 @@
         <v>1.5685</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -3074,7 +3080,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -3105,7 +3111,7 @@
         <v>1.6586000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -3136,7 +3142,7 @@
         <v>1.6918</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -3167,7 +3173,7 @@
         <v>1.712</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -3198,7 +3204,7 @@
         <v>1.7342</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -3229,7 +3235,7 @@
         <v>1.7490999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -3260,7 +3266,7 @@
         <v>1.7619</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -3291,7 +3297,7 @@
         <v>1.7738</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -3322,7 +3328,7 @@
         <v>1.7829999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -3353,7 +3359,7 @@
         <v>1.7914000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
